--- a/OvlReader/copexreader/mapping/MultiSymbolLineObject.xlsx
+++ b/OvlReader/copexreader/mapping/MultiSymbolLineObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="COLOR" sheetId="5" r:id="rId3"/>
     <sheet name="BASISTYP-LINIENOBJ" sheetId="6" r:id="rId4"/>
     <sheet name="Sample" sheetId="2" r:id="rId5"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="7" state="veryHidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="229">
   <si>
     <t xml:space="preserve">LINIENART="BASISTYP=\"LINIE_Einfach\";COLOR=\"0,0,0\";FILL_COLOR=\"0,0,0\";LINE_SIZE=\"2\";LINE_PATTERN=\"SOLID\";BASISFORM=\"GERADE\";FILL_PATTERN=\"HOLLOW\";";LINIENOBJ0="KOMPONENTENNAME=\"TEXT\";OBJEKTTYP=\"TXT\";OBJEKTINHALT=\"AL\";AUSDEHNUNG=\"20\";POSITION=\"0.5\";WINKELAUSRICHTUNG=\"ANLIEGEND\";";FREITEXT/TEXT="AL";  </t>
   </si>
@@ -623,9 +624,6 @@
   </si>
   <si>
     <t>0,255,0</t>
-  </si>
-  <si>
-    <t>*E*************</t>
   </si>
   <si>
     <t>green</t>
@@ -693,12 +691,39 @@
 gelb (255, 255, 0) = U
 rest = U?</t>
   </si>
+  <si>
+    <t>&lt;Symbol ID="GFMPOFST-------"/&gt;</t>
+  </si>
+  <si>
+    <t>G*M*OFST-------</t>
+  </si>
+  <si>
+    <t>RAUM_Sperre</t>
+  </si>
+  <si>
+    <t>Cgm</t>
+  </si>
+  <si>
+    <t>GFX_Panzerminenfeld; ;</t>
+  </si>
+  <si>
+    <t>*H*************</t>
+  </si>
+  <si>
+    <t>GFMPSW---------</t>
+  </si>
+  <si>
+    <t>&lt;Symbol ID="GFMPSW---------"/&gt;</t>
+  </si>
+  <si>
+    <t>G*M*BCB--------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,8 +753,23 @@
       <name val="Courier"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,8 +788,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -757,12 +815,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -771,18 +844,42 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -812,7 +909,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1981201</xdr:colOff>
+      <xdr:colOff>1847851</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>15845</xdr:rowOff>
     </xdr:to>
@@ -850,7 +947,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:colOff>1495425</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>82499</xdr:rowOff>
     </xdr:to>
@@ -1800,13 +1897,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>966761</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>695325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3198,13 +3295,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3300,1211 +3397,149 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>947204</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Grafik 11"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Grafik 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12934950" y="21678900"/>
+          <a:ext cx="584200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>921171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="571500"/>
-          <a:ext cx="1304925" cy="947204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
+          <a:off x="10572751" y="21678900"/>
+          <a:ext cx="1352549" cy="921171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1296201</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>962025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Grafik 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Grafik 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="1571625"/>
-          <a:ext cx="1296201" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>871537</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Grafik 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="2581275"/>
-          <a:ext cx="1266825" cy="871537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>873443</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="3505201"/>
-          <a:ext cx="1247775" cy="873442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>781088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="4410075"/>
-          <a:ext cx="1247775" cy="781088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1248671</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Grafik 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="6515100"/>
-          <a:ext cx="1248671" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>990599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1233029</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>828674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Grafik 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="7477124"/>
-          <a:ext cx="1233029" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>786713</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Grafik 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="8362951"/>
-          <a:ext cx="1209675" cy="786712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1211521</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>857250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Grafik 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="9191625"/>
-          <a:ext cx="1211521" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1200265</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>752475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Grafik 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="10106026"/>
-          <a:ext cx="1200265" cy="752474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Grafik 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="10906125"/>
-          <a:ext cx="1171575" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>747091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Grafik 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="12163425"/>
-          <a:ext cx="1152525" cy="747091"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>811089</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Grafik 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087101" y="12963525"/>
-          <a:ext cx="1171574" cy="811089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1198399</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>876301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Grafik 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="14697076"/>
-          <a:ext cx="1198399" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>762228</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Grafik 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="15811500"/>
-          <a:ext cx="1152525" cy="762228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
+          <a:off x="13677900" y="12858750"/>
+          <a:ext cx="787400" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1118901</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Grafik 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="16830675"/>
-          <a:ext cx="1118901" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1097056</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Grafik 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11125200" y="17849850"/>
-          <a:ext cx="1058956" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1065396</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Grafik 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="18802350"/>
-          <a:ext cx="1065396" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1047751</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>698501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Grafik 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087101" y="19850101"/>
-          <a:ext cx="1047750" cy="698500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>728438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Grafik 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="20583526"/>
-          <a:ext cx="1057275" cy="728437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1056965</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>781051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Grafik 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="21364576"/>
-          <a:ext cx="1056965" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1130862</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>752475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Grafik 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="22193250"/>
-          <a:ext cx="1130862" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1140543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Grafik 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087101" y="23002875"/>
-          <a:ext cx="1140542" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1094757</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>714375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Grafik 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087101" y="23917275"/>
-          <a:ext cx="1094756" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1074624</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Grafik 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="24679275"/>
-          <a:ext cx="1074624" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>858889</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Grafik 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="25660350"/>
-          <a:ext cx="1085850" cy="858889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1067493</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Grafik 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="26546175"/>
-          <a:ext cx="1067493" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1047751</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>673555</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Grafik 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087101" y="27251026"/>
-          <a:ext cx="1047750" cy="673554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>631458</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Grafik 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="28174950"/>
-          <a:ext cx="990600" cy="631458"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>624124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Grafik 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="28851225"/>
-          <a:ext cx="962025" cy="624124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>966761</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Grafik 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="29546551"/>
-          <a:ext cx="966761" cy="695324"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 233" descr="MssExcelTransfer.bmp"/>
+    <xdr:ext cx="781050" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 253" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4518,8 +3553,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15744825" y="5238750"/>
-          <a:ext cx="1752600" cy="581025"/>
+          <a:off x="14258925" y="16392525"/>
+          <a:ext cx="781050" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,29 +3585,24 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 243" descr="MssExcelTransfer.bmp"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="781050" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 253" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4586,8 +3616,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9353550" y="16287750"/>
-          <a:ext cx="1181100" cy="190500"/>
+          <a:off x="14258925" y="16392525"/>
+          <a:ext cx="781050" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4618,29 +3648,1256 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>635000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Grafik 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14258925" y="2314575"/>
+          <a:ext cx="1003300" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>947204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="571500"/>
+          <a:ext cx="1304925" cy="947204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1296201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="1571625"/>
+          <a:ext cx="1296201" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>871537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Grafik 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="2581275"/>
+          <a:ext cx="1266825" cy="871537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>873443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Grafik 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="3505201"/>
+          <a:ext cx="1247775" cy="873442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>781088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Grafik 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="4410075"/>
+          <a:ext cx="1247775" cy="781088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1248671</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Grafik 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="6515100"/>
+          <a:ext cx="1248671" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>990599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1233029</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>828674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Grafik 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="7477124"/>
+          <a:ext cx="1233029" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>786713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Grafik 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="8362951"/>
+          <a:ext cx="1209675" cy="786712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1211521</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Grafik 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="9191625"/>
+          <a:ext cx="1211521" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1200265</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Grafik 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="10106026"/>
+          <a:ext cx="1200265" cy="752474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Grafik 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="10906125"/>
+          <a:ext cx="1171575" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>747091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Grafik 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="12163425"/>
+          <a:ext cx="1152525" cy="747091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 243" descr="MssExcelTransfer.bmp"/>
+      <xdr:rowOff>811089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Grafik 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087101" y="12963525"/>
+          <a:ext cx="1171574" cy="811089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1198399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>876301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Grafik 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="14697076"/>
+          <a:ext cx="1198399" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>762228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Grafik 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="15811500"/>
+          <a:ext cx="1152525" cy="762228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1118901</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Grafik 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="16830675"/>
+          <a:ext cx="1118901" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1097056</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Grafik 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="17849850"/>
+          <a:ext cx="1058956" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1065396</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Grafik 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="18802350"/>
+          <a:ext cx="1065396" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>698501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Grafik 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087101" y="19850101"/>
+          <a:ext cx="1047750" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>728438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Grafik 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="20583526"/>
+          <a:ext cx="1057275" cy="728437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1056965</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>781051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Grafik 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="21364576"/>
+          <a:ext cx="1056965" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1130862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Grafik 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="22193250"/>
+          <a:ext cx="1130862" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1140543</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Grafik 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087101" y="23002875"/>
+          <a:ext cx="1140542" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1094757</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Grafik 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087101" y="23917275"/>
+          <a:ext cx="1094756" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1074624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Grafik 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="24679275"/>
+          <a:ext cx="1074624" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>858889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Grafik 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="25660350"/>
+          <a:ext cx="1085850" cy="858889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1067493</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Grafik 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="26546175"/>
+          <a:ext cx="1067493" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>673555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Grafik 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087101" y="27251026"/>
+          <a:ext cx="1047750" cy="673554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>631458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Grafik 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="28174950"/>
+          <a:ext cx="990600" cy="631458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>624124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Grafik 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="28851225"/>
+          <a:ext cx="962025" cy="624124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>966761</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Grafik 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="29546551"/>
+          <a:ext cx="966761" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 233" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4654,8 +4911,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="12963525"/>
-          <a:ext cx="1181100" cy="190500"/>
+          <a:off x="15744825" y="5238750"/>
+          <a:ext cx="1752600" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4690,25 +4947,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 242" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="47" name="Picture 243" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4722,8 +4979,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="12163425"/>
-          <a:ext cx="1104900" cy="190500"/>
+          <a:off x="9353550" y="16287750"/>
+          <a:ext cx="1181100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4759,24 +5016,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 244" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 243" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4790,8 +5047,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="13820775"/>
-          <a:ext cx="1276350" cy="228600"/>
+          <a:off x="14192250" y="12963525"/>
+          <a:ext cx="1181100" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4827,24 +5084,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 245" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 242" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4858,8 +5115,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="14697075"/>
-          <a:ext cx="1276350" cy="228600"/>
+          <a:off x="14192250" y="12163425"/>
+          <a:ext cx="1104900" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4895,24 +5152,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 246" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="50" name="Picture 244" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4926,7 +5183,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="15811500"/>
+          <a:off x="14192250" y="13820775"/>
           <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4963,24 +5220,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 248" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="51" name="Picture 245" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4994,7 +5251,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="16830675"/>
+          <a:off x="14192250" y="14697075"/>
           <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5031,24 +5288,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 249" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="52" name="Picture 246" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5062,7 +5319,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="17802225"/>
+          <a:off x="14192250" y="15811500"/>
           <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5099,24 +5356,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 252" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="53" name="Picture 248" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5130,7 +5387,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="18849975"/>
+          <a:off x="14192250" y="16830675"/>
           <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5167,24 +5424,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 253" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 249" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5198,8 +5455,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="19583400"/>
-          <a:ext cx="781050" cy="304800"/>
+          <a:off x="14192250" y="17802225"/>
+          <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5235,24 +5492,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 254" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 252" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5266,8 +5523,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="20364450"/>
-          <a:ext cx="771525" cy="361950"/>
+          <a:off x="14192250" y="18849975"/>
+          <a:ext cx="1276350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5303,24 +5560,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 255" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPr id="56" name="Picture 253" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5334,7 +5591,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="21193125"/>
+          <a:off x="14192250" y="19583400"/>
           <a:ext cx="781050" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5371,24 +5628,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 257" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 254" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5402,8 +5659,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="22002750"/>
-          <a:ext cx="704850" cy="304800"/>
+          <a:off x="14192250" y="20364450"/>
+          <a:ext cx="771525" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5439,24 +5696,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 266" descr="MssExcelTransfer.bmp"/>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 255" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5470,8 +5727,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="22917150"/>
-          <a:ext cx="781050" cy="171450"/>
+          <a:off x="14192250" y="21193125"/>
+          <a:ext cx="781050" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5507,24 +5764,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 269" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 257" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5538,8 +5795,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="24660225"/>
-          <a:ext cx="771525" cy="200025"/>
+          <a:off x="14192250" y="22002750"/>
+          <a:ext cx="704850" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5575,24 +5832,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 261" descr="MssExcelTransfer.bmp"/>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 266" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5606,8 +5863,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="23679150"/>
-          <a:ext cx="781050" cy="161925"/>
+          <a:off x="14192250" y="22917150"/>
+          <a:ext cx="781050" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5642,25 +5899,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 273" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 269" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5674,8 +5931,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192251" y="25546050"/>
-          <a:ext cx="638174" cy="638175"/>
+          <a:off x="14192250" y="24660225"/>
+          <a:ext cx="771525" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5711,24 +5968,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>704850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 274" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 261" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5742,8 +5999,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="26250900"/>
-          <a:ext cx="314325" cy="704850"/>
+          <a:off x="14192250" y="23679150"/>
+          <a:ext cx="781050" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5778,25 +6035,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>266701</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 277" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 273" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5810,8 +6067,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="27174826"/>
-          <a:ext cx="1438275" cy="266700"/>
+          <a:off x="14192251" y="25546050"/>
+          <a:ext cx="638174" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5847,24 +6104,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 279" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 274" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5878,8 +6135,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="27851100"/>
-          <a:ext cx="1371600" cy="266700"/>
+          <a:off x="14192250" y="26250900"/>
+          <a:ext cx="314325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5915,24 +6172,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 291" descr="MssExcelTransfer.bmp"/>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 277" descr="MssExcelTransfer.bmp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5946,8 +6203,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14192250" y="28546425"/>
-          <a:ext cx="904875" cy="647700"/>
+          <a:off x="14192250" y="27174826"/>
+          <a:ext cx="1438275" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5981,6 +6238,142 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 279" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14192250" y="27851100"/>
+          <a:ext cx="1371600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 291" descr="MssExcelTransfer.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14192250" y="28546425"/>
+          <a:ext cx="904875" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6053,6 +6446,100 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209436</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18497436" cy="1650965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t>NICHT BEARBEITEN </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t> Ist nur für die Verwendung durch Esri vorgesehen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6313,7 +6800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6324,12 +6811,13 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
@@ -6341,257 +6829,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="19">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="19">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="19">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="19">
         <v>15</v>
       </c>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="19" t="s">
         <v>180</v>
       </c>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="M5" s="4" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="M6" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="M7" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="M8" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="M9" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="M10" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="M11" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="M12" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="M13" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="M16" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="M17" s="4" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="26" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="M20" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6605,140 +7277,141 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="12"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="12"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="12"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="12"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="12"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="12"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="12"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="12"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="12"/>
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6749,175 +7422,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="32" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="C7" s="32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="C9" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="12"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="12"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="12"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="12"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="12"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="12"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="12"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="12"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="12"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="12"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="12"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="12"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="12"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="12"/>
+      <c r="C41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6926,18 +7600,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -6949,67 +7624,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="R1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
         <v>129</v>
       </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="2" t="s">
         <v>130</v>
       </c>
@@ -7018,15 +7717,26 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="2" t="s">
         <v>142</v>
       </c>
@@ -7035,42 +7745,61 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
       <c r="R5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>137</v>
       </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="2" t="s">
         <v>138</v>
       </c>
@@ -7079,36 +7808,40 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="13" t="s">
         <v>119</v>
       </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="2" t="s">
         <v>120</v>
       </c>
@@ -7117,36 +7850,40 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="13" t="s">
         <v>117</v>
       </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="2" t="s">
         <v>118</v>
       </c>
@@ -7155,36 +7892,40 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="13" t="s">
         <v>115</v>
       </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="2" t="s">
         <v>116</v>
       </c>
@@ -7193,36 +7934,40 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="13" t="s">
         <v>113</v>
       </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="2" t="s">
         <v>114</v>
       </c>
@@ -7231,27 +7976,34 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="13" t="s">
         <v>111</v>
       </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="2" t="s">
         <v>112</v>
       </c>
@@ -7260,41 +8012,59 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="33" t="s">
         <v>66</v>
       </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="R12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="s">
         <v>109</v>
       </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="2" t="s">
         <v>110</v>
       </c>
@@ -7303,28 +8073,34 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="2" t="s">
         <v>108</v>
       </c>
@@ -7333,36 +8109,40 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="N15" s="12"/>
       <c r="O15" s="2" t="s">
         <v>134</v>
       </c>
@@ -7371,27 +8151,34 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="13" t="s">
         <v>139</v>
       </c>
+      <c r="N16" s="12"/>
       <c r="O16" s="2" t="s">
         <v>140</v>
       </c>
@@ -7400,32 +8187,57 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" s="12"/>
       <c r="R17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="s">
         <v>135</v>
       </c>
+      <c r="N18" s="12"/>
       <c r="O18" s="2" t="s">
         <v>136</v>
       </c>
@@ -7434,18 +8246,28 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="13" t="s">
         <v>131</v>
       </c>
+      <c r="N19" s="12"/>
       <c r="O19" s="2" t="s">
         <v>132</v>
       </c>
@@ -7454,35 +8276,57 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="33">
         <v>840</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="12"/>
       <c r="R20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13" t="s">
         <v>122</v>
       </c>
+      <c r="N21" s="12"/>
       <c r="O21" s="2" t="s">
         <v>123</v>
       </c>
@@ -7491,18 +8335,28 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="13" t="s">
         <v>127</v>
       </c>
+      <c r="N22" s="12"/>
       <c r="O22" s="2" t="s">
         <v>128</v>
       </c>
@@ -7511,43 +8365,80 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="12"/>
       <c r="R23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="33">
         <v>720</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11" t="s">
         <v>165</v>
       </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
       <c r="R24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13" t="s">
         <v>124</v>
       </c>
+      <c r="N25" s="12"/>
       <c r="O25" s="2" t="s">
         <v>125</v>
       </c>
@@ -7556,45 +8447,91 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="33" t="s">
         <v>64</v>
       </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
       <c r="R26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="N28" s="12"/>
+      <c r="O28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R28" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9198,4 +10135,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>